--- a/ip.xlsx
+++ b/ip.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F80A44-18D8-451F-B59F-1629BD223241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>public</t>
   </si>
@@ -81,9 +82,6 @@
     <t>10.160.167.209</t>
   </si>
   <si>
-    <t>10.160.179.147</t>
-  </si>
-  <si>
     <t>10.160.179.148</t>
   </si>
   <si>
@@ -210,9 +208,6 @@
     <t>10.160.66.213</t>
   </si>
   <si>
-    <t>10.20.0.104</t>
-  </si>
-  <si>
     <t>10.160.179.109</t>
   </si>
   <si>
@@ -222,12 +217,6 @@
     <t>10.160.179.139</t>
   </si>
   <si>
-    <t>10.20.0.115</t>
-  </si>
-  <si>
-    <t>10.20.0.150</t>
-  </si>
-  <si>
     <t>10.160.179.111</t>
   </si>
   <si>
@@ -246,9 +235,6 @@
     <t>10.160.179.141</t>
   </si>
   <si>
-    <t>10.160.179.130</t>
-  </si>
-  <si>
     <t>10.160.179.133</t>
   </si>
   <si>
@@ -261,9 +247,6 @@
     <t>10.160.179.119</t>
   </si>
   <si>
-    <t>10.20.0.227</t>
-  </si>
-  <si>
     <t>10.160.179.127</t>
   </si>
   <si>
@@ -273,9 +256,6 @@
     <t>10.160.179.143</t>
   </si>
   <si>
-    <t>10.20.0.234</t>
-  </si>
-  <si>
     <t>10.160.179.113</t>
   </si>
   <si>
@@ -285,9 +265,6 @@
     <t>10.160.179.144</t>
   </si>
   <si>
-    <t>10.20.0.83</t>
-  </si>
-  <si>
     <t>10.160.179.142</t>
   </si>
   <si>
@@ -336,41 +313,50 @@
     <t>10.160.179.115</t>
   </si>
   <si>
-    <t>10.160.52.203</t>
-  </si>
-  <si>
-    <t>10.160.52.204</t>
-  </si>
-  <si>
-    <t>10.160.52.205</t>
-  </si>
-  <si>
-    <t>10.160.52.206</t>
-  </si>
-  <si>
-    <t>10.160.52.207</t>
-  </si>
-  <si>
-    <t>10.160.52.208</t>
-  </si>
-  <si>
-    <t>10.160.52.209</t>
-  </si>
-  <si>
-    <t>10.160.52.211</t>
-  </si>
-  <si>
-    <t>10.160.52.201</t>
-  </si>
-  <si>
-    <t>10.160.52.202</t>
+    <t>10.160.71.211</t>
+  </si>
+  <si>
+    <t>10.160.71.212</t>
+  </si>
+  <si>
+    <t>10.160.71.213</t>
+  </si>
+  <si>
+    <t>10.160.71.214</t>
+  </si>
+  <si>
+    <t>10.160.71.215</t>
+  </si>
+  <si>
+    <t>10.160.71.216</t>
+  </si>
+  <si>
+    <t>10.160.71.217</t>
+  </si>
+  <si>
+    <t>10.160.71.218</t>
+  </si>
+  <si>
+    <t>10.160.71.220</t>
+  </si>
+  <si>
+    <t>10.160.179.100</t>
+  </si>
+  <si>
+    <t>10.160.179.138</t>
+  </si>
+  <si>
+    <t>10.160.179.140</t>
+  </si>
+  <si>
+    <t>10.160.71.221</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,14 +620,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,20 +843,8 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1006,21 +974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1175,18 +1128,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="148">
     <cellStyle name="20% - 1. jelölőszín" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1207,11 +1151,11 @@
     <cellStyle name="60% - 4. jelölőszín" xfId="32" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 5. jelölőszín" xfId="36" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 6. jelölőszín" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent" xfId="41"/>
-    <cellStyle name="Accent 1" xfId="42"/>
-    <cellStyle name="Accent 2" xfId="43"/>
-    <cellStyle name="Accent 3" xfId="44"/>
-    <cellStyle name="Bad" xfId="45"/>
+    <cellStyle name="Accent" xfId="41" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent 1" xfId="42" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Bad" xfId="45" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Bevitel" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Cím" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Címsor 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1219,134 +1163,142 @@
     <cellStyle name="Címsor 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Címsor 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Ellenőrzőcella" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="46"/>
+    <cellStyle name="Error" xfId="46" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Figyelmeztetés" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Footnote" xfId="47"/>
-    <cellStyle name="Good" xfId="48"/>
-    <cellStyle name="Heading" xfId="49"/>
-    <cellStyle name="Heading 1" xfId="50"/>
-    <cellStyle name="Heading 2" xfId="51"/>
-    <cellStyle name="Hivatkozás 2" xfId="52"/>
-    <cellStyle name="Hivatkozás 3" xfId="53"/>
+    <cellStyle name="Footnote" xfId="47" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Good" xfId="48" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading" xfId="49" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Hivatkozás 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Hivatkozás 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Hivatkozott cella" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Jegyzet" xfId="70" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Jegyzet 2" xfId="54"/>
-    <cellStyle name="Jelölőszín (1)" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (2)" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (3)" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (4)" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (5)" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (6)" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Jegyzet 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Jelölőszín 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Jó" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Kimenet" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Magyarázó szöveg" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="55"/>
+    <cellStyle name="Neutral" xfId="55" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Normál 2" xfId="101"/>
-    <cellStyle name="Normál 2 10" xfId="132"/>
-    <cellStyle name="Normál 2 11" xfId="138"/>
-    <cellStyle name="Normál 2 12" xfId="131"/>
-    <cellStyle name="Normál 2 13" xfId="139"/>
-    <cellStyle name="Normál 2 14" xfId="129"/>
-    <cellStyle name="Normál 2 15" xfId="140"/>
-    <cellStyle name="Normál 2 2" xfId="56"/>
-    <cellStyle name="Normál 2 2 10" xfId="98"/>
-    <cellStyle name="Normál 2 2 11" xfId="95"/>
-    <cellStyle name="Normál 2 2 12" xfId="74"/>
-    <cellStyle name="Normál 2 2 13" xfId="111"/>
-    <cellStyle name="Normál 2 2 14" xfId="87"/>
-    <cellStyle name="Normál 2 2 15" xfId="115"/>
-    <cellStyle name="Normál 2 2 16" xfId="116"/>
-    <cellStyle name="Normál 2 2 17" xfId="118"/>
-    <cellStyle name="Normál 2 2 18" xfId="119"/>
-    <cellStyle name="Normál 2 2 19" xfId="120"/>
-    <cellStyle name="Normál 2 2 2" xfId="57"/>
-    <cellStyle name="Normál 2 2 2 10" xfId="80"/>
-    <cellStyle name="Normál 2 2 2 11" xfId="117"/>
-    <cellStyle name="Normál 2 2 2 12" xfId="97"/>
-    <cellStyle name="Normál 2 2 2 13" xfId="82"/>
-    <cellStyle name="Normál 2 2 2 14" xfId="77"/>
-    <cellStyle name="Normál 2 2 2 15" xfId="81"/>
-    <cellStyle name="Normál 2 2 2 16" xfId="96"/>
-    <cellStyle name="Normál 2 2 2 17" xfId="73"/>
-    <cellStyle name="Normál 2 2 2 18" xfId="75"/>
-    <cellStyle name="Normál 2 2 2 19" xfId="121"/>
-    <cellStyle name="Normál 2 2 2 2" xfId="58"/>
-    <cellStyle name="Normál 2 2 2 20" xfId="124"/>
-    <cellStyle name="Normál 2 2 2 3" xfId="110"/>
-    <cellStyle name="Normál 2 2 2 4" xfId="91"/>
-    <cellStyle name="Normál 2 2 2 5" xfId="106"/>
-    <cellStyle name="Normál 2 2 2 6" xfId="88"/>
-    <cellStyle name="Normál 2 2 2 7" xfId="108"/>
-    <cellStyle name="Normál 2 2 2 8" xfId="84"/>
-    <cellStyle name="Normál 2 2 2 9" xfId="86"/>
-    <cellStyle name="Normál 2 2 20" xfId="123"/>
-    <cellStyle name="Normál 2 2 3" xfId="109"/>
-    <cellStyle name="Normál 2 2 4" xfId="93"/>
-    <cellStyle name="Normál 2 2 5" xfId="104"/>
-    <cellStyle name="Normál 2 2 6" xfId="71"/>
-    <cellStyle name="Normál 2 2 7" xfId="72"/>
-    <cellStyle name="Normál 2 2 8" xfId="78"/>
-    <cellStyle name="Normál 2 2 9" xfId="113"/>
-    <cellStyle name="Normál 2 3" xfId="59"/>
-    <cellStyle name="Normál 2 4" xfId="60"/>
-    <cellStyle name="Normál 2 5" xfId="136"/>
-    <cellStyle name="Normál 2 6" xfId="134"/>
-    <cellStyle name="Normál 2 7" xfId="137"/>
-    <cellStyle name="Normál 2 8" xfId="133"/>
-    <cellStyle name="Normál 2 9" xfId="135"/>
-    <cellStyle name="Normál 3" xfId="61"/>
-    <cellStyle name="Normál 3 10" xfId="92"/>
-    <cellStyle name="Normál 3 10 2" xfId="144"/>
-    <cellStyle name="Normál 3 11" xfId="105"/>
-    <cellStyle name="Normál 3 11 2" xfId="126"/>
-    <cellStyle name="Normál 3 12" xfId="94"/>
-    <cellStyle name="Normál 3 12 2" xfId="145"/>
-    <cellStyle name="Normál 3 13" xfId="79"/>
-    <cellStyle name="Normál 3 13 2" xfId="147"/>
-    <cellStyle name="Normál 3 14" xfId="100"/>
-    <cellStyle name="Normál 3 14 2" xfId="146"/>
-    <cellStyle name="Normál 3 15" xfId="103"/>
-    <cellStyle name="Normál 3 16" xfId="102"/>
-    <cellStyle name="Normál 3 17" xfId="76"/>
-    <cellStyle name="Normál 3 18" xfId="114"/>
-    <cellStyle name="Normál 3 19" xfId="90"/>
-    <cellStyle name="Normál 3 2" xfId="62"/>
-    <cellStyle name="Normál 3 20" xfId="122"/>
-    <cellStyle name="Normál 3 21" xfId="125"/>
-    <cellStyle name="Normál 3 3" xfId="63"/>
-    <cellStyle name="Normál 3 4" xfId="112"/>
-    <cellStyle name="Normál 3 4 2" xfId="141"/>
-    <cellStyle name="Normál 3 5" xfId="85"/>
-    <cellStyle name="Normál 3 5 2" xfId="130"/>
-    <cellStyle name="Normál 3 6" xfId="83"/>
-    <cellStyle name="Normál 3 6 2" xfId="142"/>
-    <cellStyle name="Normál 3 7" xfId="89"/>
-    <cellStyle name="Normál 3 7 2" xfId="128"/>
-    <cellStyle name="Normál 3 8" xfId="107"/>
-    <cellStyle name="Normál 3 8 2" xfId="143"/>
-    <cellStyle name="Normál 3 9" xfId="99"/>
-    <cellStyle name="Normál 3 9 2" xfId="127"/>
-    <cellStyle name="Normál 4" xfId="64"/>
-    <cellStyle name="Normál 5" xfId="65"/>
-    <cellStyle name="Note" xfId="66"/>
+    <cellStyle name="Normál 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normál 2 10" xfId="132" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normál 2 11" xfId="138" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normál 2 12" xfId="131" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normál 2 13" xfId="139" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normál 2 14" xfId="129" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normál 2 15" xfId="140" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normál 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normál 2 2 10" xfId="98" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normál 2 2 11" xfId="95" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normál 2 2 12" xfId="74" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normál 2 2 13" xfId="111" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normál 2 2 14" xfId="87" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normál 2 2 15" xfId="115" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normál 2 2 16" xfId="116" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normál 2 2 17" xfId="118" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normál 2 2 18" xfId="119" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normál 2 2 19" xfId="120" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normál 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normál 2 2 2 10" xfId="80" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normál 2 2 2 11" xfId="117" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normál 2 2 2 12" xfId="97" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normál 2 2 2 13" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normál 2 2 2 14" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normál 2 2 2 15" xfId="81" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normál 2 2 2 16" xfId="96" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normál 2 2 2 17" xfId="73" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normál 2 2 2 18" xfId="75" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normál 2 2 2 19" xfId="121" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normál 2 2 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normál 2 2 2 20" xfId="124" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normál 2 2 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normál 2 2 2 4" xfId="91" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normál 2 2 2 5" xfId="106" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normál 2 2 2 6" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normál 2 2 2 7" xfId="108" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normál 2 2 2 8" xfId="84" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normál 2 2 2 9" xfId="86" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normál 2 2 20" xfId="123" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normál 2 2 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normál 2 2 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normál 2 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normál 2 2 6" xfId="71" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normál 2 2 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normál 2 2 8" xfId="78" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normál 2 2 9" xfId="113" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normál 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normál 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normál 2 5" xfId="136" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normál 2 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normál 2 7" xfId="137" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normál 2 8" xfId="133" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normál 2 9" xfId="135" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normál 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normál 3 10" xfId="92" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normál 3 10 2" xfId="144" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normál 3 11" xfId="105" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normál 3 11 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normál 3 12" xfId="94" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normál 3 12 2" xfId="145" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normál 3 13" xfId="79" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normál 3 13 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normál 3 14" xfId="100" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normál 3 14 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normál 3 15" xfId="103" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normál 3 16" xfId="102" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normál 3 17" xfId="76" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normál 3 18" xfId="114" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normál 3 19" xfId="90" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normál 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normál 3 20" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normál 3 21" xfId="125" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normál 3 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normál 3 4" xfId="112" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normál 3 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normál 3 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normál 3 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normál 3 6" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normál 3 6 2" xfId="142" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normál 3 7" xfId="89" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normál 3 7 2" xfId="128" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normál 3 8" xfId="107" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normál 3 8 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normál 3 9" xfId="99" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normál 3 9 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normál 4" xfId="64" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normál 5" xfId="65" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Note" xfId="66" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
     <cellStyle name="Összesen" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Rossz" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Semleges" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="67"/>
+    <cellStyle name="Status" xfId="67" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
     <cellStyle name="Számítás" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Text" xfId="68"/>
-    <cellStyle name="Warning" xfId="69"/>
+    <cellStyle name="Text" xfId="68" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Warning" xfId="69" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1384,7 +1336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1418,6 +1370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1452,9 +1405,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1627,20 +1581,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B62" sqref="B61:B114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1648,907 +1602,867 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="5" t="s">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5" t="s">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="5" t="s">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5" t="s">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="5" t="s">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="5" t="s">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="5" t="s">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="5" t="s">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="5" t="s">
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="5" t="s">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="5" t="s">
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="5" t="s">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="5" t="s">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="5" t="s">
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="4" t="s">
+      <c r="B109" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2559,12 +2473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2572,12 +2486,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
